--- a/templates/AutomationOrg/RSTK-9618-Derived Component Receipt.xlsx
+++ b/templates/AutomationOrg/RSTK-9618-Derived Component Receipt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534FA829-52F1-461B-B0E9-B0BFC60D2168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58FAE06-F43C-4480-A6C9-51658AB65078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Disassembly WO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -131,12 +131,6 @@
     <t>Add consumable components?</t>
   </si>
   <si>
-    <t>Pro-Disassembley (Lot and serial track)</t>
-  </si>
-  <si>
-    <t>Pro-Disassembley Serial (Serial track)</t>
-  </si>
-  <si>
     <t>Project Charge Code</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>OH (On Hand Loc)</t>
+  </si>
+  <si>
+    <t>Pro-Disassembley1 (Lot and serial track)</t>
   </si>
 </sst>
 </file>
@@ -508,14 +505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
@@ -525,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -537,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -548,10 +545,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,12 +573,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -627,36 +624,36 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -666,44 +663,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44966</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -713,15 +677,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A55D77-3A07-4BB8-BFD8-EAD99132AF4E}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -762,7 +726,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -770,20 +734,38 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>10</v>
       </c>
@@ -799,11 +781,17 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
@@ -817,66 +805,6 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1E-3</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
         <v>29</v>
       </c>
     </row>
